--- a/data/indices/NIFTY 50_gainers.xlsx
+++ b/data/indices/NIFTY 50_gainers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>To Year High Profit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Total Year Up</t>
         </is>
       </c>
@@ -492,7 +497,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7378.65</v>
+        <v>7284.45</v>
       </c>
       <c r="E2" t="n">
         <v>8345</v>
@@ -501,10 +506,13 @@
         <v>2955</v>
       </c>
       <c r="G2" t="n">
-        <v>11.57998801677652</v>
+        <v>12.70880766926303</v>
       </c>
       <c r="H2" t="n">
-        <v>149.7005076142132</v>
+        <v>14.55909505865234</v>
+      </c>
+      <c r="I2" t="n">
+        <v>146.5126903553299</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3201.5</v>
+        <v>3180</v>
       </c>
       <c r="E3" t="n">
         <v>3237.05</v>
@@ -533,10 +541,13 @@
         <v>1575</v>
       </c>
       <c r="G3" t="n">
-        <v>1.098222146707661</v>
+        <v>1.762407129948573</v>
       </c>
       <c r="H3" t="n">
-        <v>103.2698412698413</v>
+        <v>1.794025157232704</v>
+      </c>
+      <c r="I3" t="n">
+        <v>101.9047619047619</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +567,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>295.1</v>
+        <v>291.95</v>
       </c>
       <c r="E4" t="n">
         <v>340.5</v>
@@ -565,10 +576,13 @@
         <v>171.75</v>
       </c>
       <c r="G4" t="n">
-        <v>13.33333333333333</v>
+        <v>14.25844346549193</v>
       </c>
       <c r="H4" t="n">
-        <v>71.81950509461427</v>
+        <v>16.62955985613976</v>
+      </c>
+      <c r="I4" t="n">
+        <v>69.98544395924309</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +602,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1954.9</v>
+        <v>1943</v>
       </c>
       <c r="E5" t="n">
         <v>1992.1</v>
@@ -597,10 +611,13 @@
         <v>1235</v>
       </c>
       <c r="G5" t="n">
-        <v>1.867376135736154</v>
+        <v>2.464735706038845</v>
       </c>
       <c r="H5" t="n">
-        <v>58.29149797570852</v>
+        <v>2.527020072053521</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57.32793522267205</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="E6" t="n">
         <v>1779</v>
@@ -629,10 +646,13 @@
         <v>1021.35</v>
       </c>
       <c r="G6" t="n">
-        <v>9.893198426082073</v>
+        <v>10.3991006183249</v>
       </c>
       <c r="H6" t="n">
-        <v>56.94913594752045</v>
+        <v>11.60602258469259</v>
+      </c>
+      <c r="I6" t="n">
+        <v>56.06794928281196</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +672,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3072.3</v>
+        <v>3055</v>
       </c>
       <c r="E7" t="n">
         <v>3652.25</v>
@@ -661,10 +681,13 @@
         <v>2029</v>
       </c>
       <c r="G7" t="n">
-        <v>15.87925251557258</v>
+        <v>16.35293312341707</v>
       </c>
       <c r="H7" t="n">
-        <v>51.41941843272549</v>
+        <v>19.54991816693945</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50.56678166584525</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +707,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5350</v>
+        <v>5310</v>
       </c>
       <c r="E8" t="n">
         <v>5385.7</v>
@@ -693,10 +716,13 @@
         <v>3562.45</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6628664797519335</v>
+        <v>1.405574020090239</v>
       </c>
       <c r="H8" t="n">
-        <v>50.17754635152776</v>
+        <v>1.425612052730685</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49.05472357506773</v>
       </c>
     </row>
     <row r="9">
@@ -716,7 +742,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1697</v>
+        <v>1690.5</v>
       </c>
       <c r="E9" t="n">
         <v>1807.7</v>
@@ -725,10 +751,13 @@
         <v>1162.95</v>
       </c>
       <c r="G9" t="n">
-        <v>6.12380372849477</v>
+        <v>6.483376666482277</v>
       </c>
       <c r="H9" t="n">
-        <v>45.92200868481018</v>
+        <v>6.932860100561977</v>
+      </c>
+      <c r="I9" t="n">
+        <v>45.36308525731974</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +777,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1857.4</v>
+        <v>1848.65</v>
       </c>
       <c r="E10" t="n">
         <v>1960.35</v>
@@ -757,10 +786,13 @@
         <v>1287</v>
       </c>
       <c r="G10" t="n">
-        <v>5.251613232330953</v>
+        <v>5.697962098604837</v>
       </c>
       <c r="H10" t="n">
-        <v>44.32012432012434</v>
+        <v>6.042247045141047</v>
+      </c>
+      <c r="I10" t="n">
+        <v>43.64024864024864</v>
       </c>
     </row>
     <row r="11">
@@ -780,7 +812,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1936.45</v>
+        <v>1939.1</v>
       </c>
       <c r="E11" t="n">
         <v>2006.45</v>
@@ -789,10 +821,13 @@
         <v>1358.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.488748785167839</v>
+        <v>3.356674724015063</v>
       </c>
       <c r="H11" t="n">
-        <v>42.55898700629442</v>
+        <v>3.47326079108865</v>
+      </c>
+      <c r="I11" t="n">
+        <v>42.75407663709647</v>
       </c>
     </row>
     <row r="12">
@@ -812,7 +847,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>295.95</v>
+        <v>295.2</v>
       </c>
       <c r="E12" t="n">
         <v>320</v>
@@ -821,10 +856,13 @@
         <v>208.5</v>
       </c>
       <c r="G12" t="n">
-        <v>7.515625000000004</v>
+        <v>7.750000000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>41.94244604316546</v>
+        <v>8.401084010840121</v>
+      </c>
+      <c r="I12" t="n">
+        <v>41.58273381294963</v>
       </c>
     </row>
     <row r="13">
@@ -844,7 +882,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>316.45</v>
+        <v>315.8</v>
       </c>
       <c r="E13" t="n">
         <v>366.25</v>
@@ -853,10 +891,13 @@
         <v>226.05</v>
       </c>
       <c r="G13" t="n">
-        <v>13.59726962457338</v>
+        <v>13.77474402730375</v>
       </c>
       <c r="H13" t="n">
-        <v>39.99115239991151</v>
+        <v>15.97530082330589</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39.70360539703606</v>
       </c>
     </row>
     <row r="14">
@@ -876,7 +917,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9044.1</v>
+        <v>8965</v>
       </c>
       <c r="E14" t="n">
         <v>12774</v>
@@ -885,74 +926,83 @@
         <v>6604</v>
       </c>
       <c r="G14" t="n">
-        <v>29.19915453264444</v>
+        <v>29.81838108658213</v>
       </c>
       <c r="H14" t="n">
-        <v>36.94881889763779</v>
+        <v>42.48745119910764</v>
+      </c>
+      <c r="I14" t="n">
+        <v>35.75105996365839</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>799.45</v>
+        <v>296.7</v>
       </c>
       <c r="E15" t="n">
-        <v>912</v>
+        <v>376</v>
       </c>
       <c r="F15" t="n">
-        <v>600.65</v>
+        <v>222.55</v>
       </c>
       <c r="G15" t="n">
-        <v>12.34100877192982</v>
+        <v>21.09042553191489</v>
       </c>
       <c r="H15" t="n">
-        <v>33.09747773245653</v>
+        <v>26.72733400741489</v>
+      </c>
+      <c r="I15" t="n">
+        <v>33.31835542574701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>295.25</v>
+        <v>793.3</v>
       </c>
       <c r="E16" t="n">
-        <v>376</v>
+        <v>912</v>
       </c>
       <c r="F16" t="n">
-        <v>222.55</v>
+        <v>600.65</v>
       </c>
       <c r="G16" t="n">
-        <v>21.47606382978723</v>
+        <v>13.01535087719299</v>
       </c>
       <c r="H16" t="n">
-        <v>32.66681644574252</v>
+        <v>14.96281356359512</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32.07358694747357</v>
       </c>
     </row>
     <row r="17">
@@ -972,7 +1022,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1271.85</v>
+        <v>1265.6</v>
       </c>
       <c r="E17" t="n">
         <v>1362.35</v>
@@ -981,42 +1031,13 @@
         <v>970.15</v>
       </c>
       <c r="G17" t="n">
-        <v>6.642933166954156</v>
+        <v>7.101699269644368</v>
       </c>
       <c r="H17" t="n">
-        <v>31.09828377055095</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>INE437A01024</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hospital</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>7362.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7545</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5640</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.418820410868128</v>
-      </c>
-      <c r="H18" t="n">
-        <v>30.54078014184398</v>
+        <v>7.644595448798985</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30.45405349688193</v>
       </c>
     </row>
   </sheetData>
